--- a/Data model/2024-12-19 Attribute overview for DIN DKE SPEC 99200~2025-03.xlsx
+++ b/Data model/2024-12-19 Attribute overview for DIN DKE SPEC 99200~2025-03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Pool\Docs\Metadaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3094415E-7D52-4D14-8CA0-57DB1E352D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0FF85E-65CD-4249-B9F0-56F2BE9603E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{C8A892DA-9295-4262-8147-EAEE290761E2}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="745">
   <si>
     <t>Englisch</t>
   </si>
@@ -2372,6 +2372,9 @@
   </si>
   <si>
     <t>abbreviation or short name of the supplier, for example DIN Media, VDE VERLAG, ...</t>
+  </si>
+  <si>
+    <t>Buchholz, D. Wernicke, A. Berlin, Offenbach: Consortium of the DIN DKE SPEC 99200, 2025-02-19</t>
   </si>
 </sst>
 </file>
@@ -3291,7 +3294,9 @@
         <v>665</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="K2" s="47" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="49" t="s">
